--- a/SFP-10G-SR.xlsx
+++ b/SFP-10G-SR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\KEY SPECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D6952-C3A2-440E-875C-D34536928415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8D19E8-2B6A-441F-BD86-4BCFA5F10551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="14595" windowHeight="8746" xr2:uid="{F3256F05-3432-4A7D-B47D-3D5B9C14E583}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F3256F05-3432-4A7D-B47D-3D5B9C14E583}"/>
   </bookViews>
   <sheets>
     <sheet name="SFP-10G-SR" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -225,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,9 +249,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -269,6 +272,18 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,17 +601,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE69111E-E5D3-4F90-8AC6-A0A3026E4432}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,120 +620,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="15"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
     </row>
